--- a/data/mcps_hs_sports_records_2015_2016.xlsx
+++ b/data/mcps_hs_sports_records_2015_2016.xlsx
@@ -15,12 +15,12 @@
     <sheet name="MCPS Win Percentages" sheetId="1" r:id="rId1"/>
     <sheet name="Win-Loss Records" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" calcOnSave="0"/>
+  <calcPr calcId="152511" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="168">
   <si>
     <t>School</t>
   </si>
@@ -521,6 +521,9 @@
   </si>
   <si>
     <t>2-9</t>
+  </si>
+  <si>
+    <t>Total All Sports</t>
   </si>
 </sst>
 </file>
@@ -562,13 +565,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -855,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -931,7 +933,9 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1"/>
+      <c r="S1" s="1" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -952,43 +956,46 @@
       <c r="F2" s="1">
         <v>-77.129891999999998</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <v>0.2</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="8">
         <v>0.43</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="8">
         <v>0.75</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="8">
         <v>0.11</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="8">
         <v>0.42</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="8">
         <v>0.71</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="8">
         <v>0.71</v>
       </c>
-      <c r="N2" s="9">
+      <c r="N2" s="8">
         <v>0.82</v>
       </c>
-      <c r="O2" s="9">
+      <c r="O2" s="8">
         <v>0.36</v>
       </c>
-      <c r="P2" s="9">
+      <c r="P2" s="8">
         <v>0.3</v>
       </c>
-      <c r="Q2" s="9">
+      <c r="Q2" s="8">
         <v>0.5</v>
       </c>
-      <c r="R2" s="9">
+      <c r="R2" s="8">
         <v>0.67</v>
       </c>
-      <c r="S2" s="5"/>
+      <c r="S2" s="8">
+        <f>AVERAGE(G2:R2)</f>
+        <v>0.49833333333333335</v>
+      </c>
     </row>
     <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -997,7 +1004,7 @@
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="4">
@@ -1009,43 +1016,46 @@
       <c r="F3" s="1">
         <v>-77.183758900000001</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <v>0.3</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <v>0.83</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="8">
         <v>0.28000000000000003</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="8">
         <v>0.72</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="8">
         <v>0.64</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="8">
         <v>0.71</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="8">
         <v>0.62</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="8">
         <v>0.72</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="8">
         <v>0.35</v>
       </c>
-      <c r="P3" s="9">
+      <c r="P3" s="8">
         <v>0.43</v>
       </c>
-      <c r="Q3" s="9">
+      <c r="Q3" s="8">
         <v>0.9</v>
       </c>
-      <c r="R3" s="9">
+      <c r="R3" s="8">
         <v>0.67</v>
       </c>
-      <c r="S3" s="5"/>
+      <c r="S3" s="8">
+        <f t="shared" ref="S3:S15" si="0">AVERAGE(G3:R3)</f>
+        <v>0.59749999999999992</v>
+      </c>
     </row>
     <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1066,43 +1076,46 @@
       <c r="F4" s="1">
         <v>-77.1279234</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <v>0.4</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <v>0.62</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="8">
         <v>0.74</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="8">
         <v>0.25</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="8">
         <v>0.79</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="8">
         <v>0.6</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="8">
         <v>0.85</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="8">
         <v>0.59</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O4" s="8">
         <v>0.88</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="8">
         <v>0.63</v>
       </c>
-      <c r="Q4" s="9">
+      <c r="Q4" s="8">
         <v>0.82</v>
       </c>
-      <c r="R4" s="9">
+      <c r="R4" s="8">
         <v>0.83</v>
       </c>
-      <c r="S4" s="5"/>
+      <c r="S4" s="8">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
     </row>
     <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -1123,43 +1136,46 @@
       <c r="F5" s="1">
         <v>-77.173991700000002</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>0.2</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <v>0.62</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="8">
         <v>0.24</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="8">
         <v>0.33</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="8">
         <v>0.71</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="8">
         <v>0.88</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="8">
         <v>0.81</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="8">
         <v>0.36</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="8">
         <v>0.77</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="8">
         <v>0.55000000000000004</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="Q5" s="8">
         <v>0.8</v>
       </c>
-      <c r="R5" s="9">
+      <c r="R5" s="8">
         <v>0.75</v>
       </c>
-      <c r="S5" s="5"/>
+      <c r="S5" s="8">
+        <f t="shared" si="0"/>
+        <v>0.58499999999999996</v>
+      </c>
     </row>
     <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -1180,43 +1196,46 @@
       <c r="F6" s="1">
         <v>-77.417317600000004</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <v>0.5</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="8">
         <v>0.82</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="8">
         <v>0.65</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="8">
         <v>0.38</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="8">
         <v>0.79</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="8">
         <v>0.73</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="8">
         <v>0.6</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="8">
         <v>0.08</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O6" s="8">
         <v>0.83</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="8">
         <v>0.23</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="Q6" s="8">
         <v>0.73</v>
       </c>
-      <c r="R6" s="9">
+      <c r="R6" s="8">
         <v>0.36</v>
       </c>
-      <c r="S6" s="5"/>
+      <c r="S6" s="8">
+        <f t="shared" si="0"/>
+        <v>0.55833333333333335</v>
+      </c>
     </row>
     <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1237,19 +1256,19 @@
       <c r="F7" s="1">
         <v>-77.089664400000004</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="5"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
     </row>
     <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -1270,19 +1289,19 @@
       <c r="F8" s="1">
         <v>-77.011122200000003</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="5"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
     </row>
     <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -1303,43 +1322,46 @@
       <c r="F9" s="1">
         <v>-77.022180000000006</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <v>0.2</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <v>0.38</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="8">
         <v>0.06</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="8">
         <v>0.47</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="8">
         <v>0.36</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="8">
         <v>0.47</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="8">
         <v>0.08</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9" s="8">
         <v>0.31</v>
       </c>
-      <c r="O9" s="9">
+      <c r="O9" s="8">
         <v>0</v>
       </c>
-      <c r="P9" s="9">
+      <c r="P9" s="8">
         <v>0.18</v>
       </c>
-      <c r="Q9" s="9">
+      <c r="Q9" s="8">
         <v>0.09</v>
       </c>
-      <c r="R9" s="9">
+      <c r="R9" s="8">
         <v>0.42</v>
       </c>
-      <c r="S9" s="5"/>
+      <c r="S9" s="8">
+        <f t="shared" si="0"/>
+        <v>0.25166666666666665</v>
+      </c>
     </row>
     <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -1360,43 +1382,46 @@
       <c r="F10" s="1">
         <v>-77.038418500000006</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <v>0</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="8">
         <v>0</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="8">
         <v>0.44</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="8">
         <v>0.19</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="8">
         <v>0</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="8">
         <v>0.14000000000000001</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="8">
         <v>0</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10" s="8">
         <v>0.53</v>
       </c>
-      <c r="O10" s="9">
+      <c r="O10" s="8">
         <v>0.68</v>
       </c>
-      <c r="P10" s="9">
+      <c r="P10" s="8">
         <v>0.67</v>
       </c>
-      <c r="Q10" s="9">
+      <c r="Q10" s="8">
         <v>0</v>
       </c>
-      <c r="R10" s="9">
+      <c r="R10" s="8">
         <v>0.5</v>
       </c>
-      <c r="S10" s="5"/>
+      <c r="S10" s="8">
+        <f t="shared" si="0"/>
+        <v>0.26250000000000001</v>
+      </c>
     </row>
     <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -1417,43 +1442,46 @@
       <c r="F11" s="1">
         <v>-77.006489000000002</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="8">
         <v>0.55549999999999999</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="8">
         <v>0.81</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="8">
         <v>0.06</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="8">
         <v>0.28000000000000003</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="8">
         <v>0.54</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="8">
         <v>0.53</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="8">
         <v>0.54</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N11" s="8">
         <v>0.2</v>
       </c>
-      <c r="O11" s="9">
+      <c r="O11" s="8">
         <v>0.27</v>
       </c>
-      <c r="P11" s="9">
+      <c r="P11" s="8">
         <v>0.63</v>
       </c>
-      <c r="Q11" s="9">
+      <c r="Q11" s="8">
         <v>0.45</v>
       </c>
-      <c r="R11" s="9">
+      <c r="R11" s="8">
         <v>0.17</v>
       </c>
-      <c r="S11" s="5"/>
+      <c r="S11" s="8">
+        <f t="shared" si="0"/>
+        <v>0.41962500000000008</v>
+      </c>
     </row>
     <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1474,43 +1502,46 @@
       <c r="F12" s="1">
         <v>-77.066817499999999</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="8">
         <v>0.1</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="8">
         <v>0.08</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="8">
         <v>0.56000000000000005</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="8">
         <v>0.18</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="8">
         <v>0.08</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="8">
         <v>0.36</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="8">
         <v>0.23</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12" s="8">
         <v>0.47</v>
       </c>
-      <c r="O12" s="9">
+      <c r="O12" s="8">
         <v>0.09</v>
       </c>
-      <c r="P12" s="9">
+      <c r="P12" s="8">
         <v>0.22</v>
       </c>
-      <c r="Q12" s="9">
+      <c r="Q12" s="8">
         <v>0.5</v>
       </c>
-      <c r="R12" s="9">
+      <c r="R12" s="8">
         <v>0.1</v>
       </c>
-      <c r="S12" s="5"/>
+      <c r="S12" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24749999999999997</v>
+      </c>
     </row>
     <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -1531,43 +1562,46 @@
       <c r="F13" s="1">
         <v>-77.195949600000006</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="8">
         <v>0.5</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="8">
         <v>0.2</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="8">
         <v>0.89</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="8">
         <v>0.28999999999999998</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="8">
         <v>0.42</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="8">
         <v>0.31</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M13" s="8">
         <v>0.23</v>
       </c>
-      <c r="N13" s="9">
+      <c r="N13" s="8">
         <v>0.15</v>
       </c>
-      <c r="O13" s="9">
+      <c r="O13" s="8">
         <v>0.59</v>
       </c>
-      <c r="P13" s="9">
+      <c r="P13" s="8">
         <v>0.72</v>
       </c>
-      <c r="Q13" s="9">
+      <c r="Q13" s="8">
         <v>0.33</v>
       </c>
-      <c r="R13" s="9">
+      <c r="R13" s="8">
         <v>0.5</v>
       </c>
-      <c r="S13" s="5"/>
+      <c r="S13" s="8">
+        <f t="shared" si="0"/>
+        <v>0.42749999999999999</v>
+      </c>
     </row>
     <row r="14" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -1576,7 +1610,7 @@
       <c r="B14" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D14" s="4">
@@ -1588,43 +1622,46 @@
       <c r="F14" s="1">
         <v>-77.215055000000007</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="8">
         <v>0.45</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="8">
         <v>0.46</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="8">
         <v>0.25</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="8">
         <v>0.12</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="8">
         <v>0.62</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14" s="8">
         <v>0.2</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M14" s="8">
         <v>0.15</v>
       </c>
-      <c r="N14" s="9">
+      <c r="N14" s="8">
         <v>0.67</v>
       </c>
-      <c r="O14" s="9">
+      <c r="O14" s="8">
         <v>0.19</v>
       </c>
-      <c r="P14" s="9">
+      <c r="P14" s="8">
         <v>0.21</v>
       </c>
-      <c r="Q14" s="9">
+      <c r="Q14" s="8">
         <v>0.09</v>
       </c>
-      <c r="R14" s="9">
+      <c r="R14" s="8">
         <v>0.42</v>
       </c>
-      <c r="S14" s="5"/>
+      <c r="S14" s="8">
+        <f t="shared" si="0"/>
+        <v>0.31916666666666665</v>
+      </c>
     </row>
     <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -1645,41 +1682,45 @@
       <c r="F15" s="1">
         <v>-77.066468599999993</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="8">
         <v>0.57999999999999996</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="8">
         <v>0.36</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="8">
         <v>0.06</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="8">
         <v>0.06</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="8">
         <v>0.38</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15" s="8">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="8">
         <v>0</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N15" s="8">
         <v>0.28999999999999998</v>
       </c>
-      <c r="O15" s="9">
+      <c r="O15" s="8">
         <v>0.18</v>
       </c>
-      <c r="P15" s="9">
+      <c r="P15" s="8">
         <v>0.09</v>
       </c>
-      <c r="Q15" s="9">
+      <c r="Q15" s="8">
         <v>0.3</v>
       </c>
-      <c r="R15" s="9">
+      <c r="R15" s="8">
         <v>0.18</v>
+      </c>
+      <c r="S15" s="8">
+        <f t="shared" si="0"/>
+        <v>0.21249999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1744,7 +1785,7 @@
       <c r="L1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1752,40 +1793,40 @@
       <c r="A2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="6" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1793,40 +1834,40 @@
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="6" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1834,40 +1875,40 @@
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="6" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1875,40 +1916,40 @@
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="6" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1916,95 +1957,95 @@
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="6" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="6"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="L8" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="M8" s="6" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2012,40 +2053,40 @@
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="M9" s="6" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2053,40 +2094,40 @@
       <c r="A10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="L10" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="M10" s="6" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2094,40 +2135,40 @@
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="L11" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="M11" s="7" t="s">
+      <c r="M11" s="6" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2135,40 +2176,40 @@
       <c r="A12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="L12" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="M12" s="7" t="s">
+      <c r="M12" s="6" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2176,40 +2217,40 @@
       <c r="A13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="L13" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="M13" s="7" t="s">
+      <c r="M13" s="6" t="s">
         <v>158</v>
       </c>
     </row>
@@ -2217,45 +2258,45 @@
       <c r="A14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="L14" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="M14" s="7" t="s">
+      <c r="M14" s="6" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M15" s="8"/>
+      <c r="M15" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
